--- a/database/industries/urea/shapdis/product/quarterly_seprated.xlsx
+++ b/database/industries/urea/shapdis/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE68D64-AEE4-4E74-BD75-AE98326FB9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA9901-91A6-46C7-BE84-C1B2ABBE7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شپدیس-پتروشیمی پردیس</t>
@@ -37,27 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1398/12</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل اول منتهی به 1400/09</t>
   </si>
   <si>
@@ -65,6 +44,12 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -654,16 +639,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N85"/>
+  <dimension ref="B1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -672,13 +657,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,13 +669,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -706,13 +681,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -721,13 +691,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,13 +703,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,13 +715,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,13 +725,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -797,23 +747,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -822,15 +757,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -839,130 +769,80 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>483846</v>
-      </c>
-      <c r="F12" s="13">
-        <v>323233</v>
+        <v>299855</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="13">
-        <v>180134</v>
+        <v>218211</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>233727</v>
       </c>
       <c r="I12" s="13">
-        <v>348122</v>
-      </c>
-      <c r="J12" s="13">
-        <v>267209</v>
-      </c>
-      <c r="K12" s="13">
-        <v>278904</v>
-      </c>
-      <c r="L12" s="13">
-        <v>299855</v>
-      </c>
-      <c r="M12" s="13">
-        <v>297149</v>
-      </c>
-      <c r="N12" s="13">
-        <v>218211</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>195197</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
-        <v>483846</v>
+        <v>299855</v>
       </c>
       <c r="F13" s="15">
-        <v>323233</v>
+        <v>0</v>
       </c>
       <c r="G13" s="15">
-        <v>180134</v>
+        <v>218211</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>233727</v>
       </c>
       <c r="I13" s="15">
-        <v>348122</v>
-      </c>
-      <c r="J13" s="15">
-        <v>267209</v>
-      </c>
-      <c r="K13" s="15">
-        <v>278904</v>
-      </c>
-      <c r="L13" s="15">
-        <v>299855</v>
-      </c>
-      <c r="M13" s="15">
-        <v>297149</v>
-      </c>
-      <c r="N13" s="15">
-        <v>218211</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>195197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -971,130 +851,80 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>19500</v>
-      </c>
-      <c r="F15" s="11">
-        <v>37001</v>
+        <v>69002</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="11">
-        <v>55501</v>
+        <v>69416</v>
       </c>
       <c r="H15" s="11">
-        <v>37101</v>
+        <v>69000</v>
       </c>
       <c r="I15" s="11">
-        <v>55501</v>
-      </c>
-      <c r="J15" s="11">
-        <v>74000</v>
-      </c>
-      <c r="K15" s="11">
-        <v>60002</v>
-      </c>
-      <c r="L15" s="11">
-        <v>69002</v>
-      </c>
-      <c r="M15" s="11">
-        <v>44916</v>
-      </c>
-      <c r="N15" s="11">
-        <v>69416</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>48720</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>587642</v>
-      </c>
-      <c r="F16" s="13">
-        <v>362666</v>
+        <v>560542</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G16" s="13">
-        <v>555453</v>
+        <v>572132</v>
       </c>
       <c r="H16" s="13">
-        <v>650178</v>
+        <v>742213</v>
       </c>
       <c r="I16" s="13">
-        <v>425278</v>
-      </c>
-      <c r="J16" s="13">
-        <v>530926</v>
-      </c>
-      <c r="K16" s="13">
-        <v>585144</v>
-      </c>
-      <c r="L16" s="13">
-        <v>560542</v>
-      </c>
-      <c r="M16" s="13">
-        <v>244093</v>
-      </c>
-      <c r="N16" s="13">
-        <v>572132</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+        <v>578048</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
-        <v>607142</v>
+        <v>629544</v>
       </c>
       <c r="F17" s="15">
-        <v>399667</v>
+        <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>610954</v>
+        <v>641548</v>
       </c>
       <c r="H17" s="15">
-        <v>687279</v>
+        <v>811213</v>
       </c>
       <c r="I17" s="15">
-        <v>480779</v>
-      </c>
-      <c r="J17" s="15">
-        <v>604926</v>
-      </c>
-      <c r="K17" s="15">
-        <v>645146</v>
-      </c>
-      <c r="L17" s="15">
-        <v>629544</v>
-      </c>
-      <c r="M17" s="15">
-        <v>289009</v>
-      </c>
-      <c r="N17" s="15">
-        <v>641548</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+        <v>626768</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1103,15 +933,10 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1130,72 +955,42 @@
       <c r="I19" s="15">
         <v>0</v>
       </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
+      <c r="E21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
@@ -1206,60 +1001,30 @@
       <c r="I21" s="15">
         <v>0</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="15">
-        <v>0</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
-        <v>1090988</v>
+        <v>929399</v>
       </c>
       <c r="F22" s="19">
-        <v>722900</v>
+        <v>0</v>
       </c>
       <c r="G22" s="19">
-        <v>791088</v>
+        <v>859759</v>
       </c>
       <c r="H22" s="19">
-        <v>687279</v>
+        <v>1044940</v>
       </c>
       <c r="I22" s="19">
-        <v>828901</v>
-      </c>
-      <c r="J22" s="19">
-        <v>872135</v>
-      </c>
-      <c r="K22" s="19">
-        <v>924050</v>
-      </c>
-      <c r="L22" s="19">
-        <v>929399</v>
-      </c>
-      <c r="M22" s="19">
-        <v>586158</v>
-      </c>
-      <c r="N22" s="19">
-        <v>859759</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>821965</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1268,13 +1033,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1283,13 +1043,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1298,15 +1053,10 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1325,23 +1075,8 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1350,15 +1085,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1367,130 +1097,80 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
+      <c r="E29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>8898716</v>
-      </c>
-      <c r="F30" s="13">
-        <v>7199791</v>
+        <v>27113312</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="13">
-        <v>4022900</v>
+        <v>25492942</v>
       </c>
       <c r="H30" s="13">
-        <v>0</v>
+        <v>24128440</v>
       </c>
       <c r="I30" s="13">
-        <v>14194848</v>
-      </c>
-      <c r="J30" s="13">
-        <v>12315569</v>
-      </c>
-      <c r="K30" s="13">
-        <v>12906086</v>
-      </c>
-      <c r="L30" s="13">
-        <v>27113312</v>
-      </c>
-      <c r="M30" s="13">
-        <v>26844364</v>
-      </c>
-      <c r="N30" s="13">
-        <v>25492942</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+        <v>21412704</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>8898716</v>
+        <v>27113312</v>
       </c>
       <c r="F31" s="15">
-        <v>7199791</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>4022900</v>
+        <v>25492942</v>
       </c>
       <c r="H31" s="15">
-        <v>0</v>
+        <v>24128440</v>
       </c>
       <c r="I31" s="15">
-        <v>14194848</v>
-      </c>
-      <c r="J31" s="15">
-        <v>12315569</v>
-      </c>
-      <c r="K31" s="15">
-        <v>12906086</v>
-      </c>
-      <c r="L31" s="15">
-        <v>27113312</v>
-      </c>
-      <c r="M31" s="15">
-        <v>26844364</v>
-      </c>
-      <c r="N31" s="15">
-        <v>25492942</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>21412704</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1499,130 +1179,80 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>353757</v>
-      </c>
-      <c r="F33" s="11">
-        <v>652376</v>
+        <v>7166327</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G33" s="11">
-        <v>1122943</v>
+        <v>14187765</v>
       </c>
       <c r="H33" s="11">
-        <v>1000639</v>
+        <v>13306820</v>
       </c>
       <c r="I33" s="11">
-        <v>1489150</v>
-      </c>
-      <c r="J33" s="11">
-        <v>2614123</v>
-      </c>
-      <c r="K33" s="11">
-        <v>4254820</v>
-      </c>
-      <c r="L33" s="11">
-        <v>7166327</v>
-      </c>
-      <c r="M33" s="11">
-        <v>5864941</v>
-      </c>
-      <c r="N33" s="11">
-        <v>14187765</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9197732</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>13101501</v>
-      </c>
-      <c r="F34" s="13">
-        <v>10042271</v>
+        <v>60107742</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="G34" s="13">
-        <v>23039630</v>
+        <v>88379270</v>
       </c>
       <c r="H34" s="13">
-        <v>34398483</v>
+        <v>104713742</v>
       </c>
       <c r="I34" s="13">
-        <v>26311655</v>
-      </c>
-      <c r="J34" s="13">
-        <v>33004501</v>
-      </c>
-      <c r="K34" s="13">
-        <v>43497393</v>
-      </c>
-      <c r="L34" s="13">
-        <v>60107742</v>
-      </c>
-      <c r="M34" s="13">
-        <v>34277158</v>
-      </c>
-      <c r="N34" s="13">
-        <v>88379270</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+        <v>80232376</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
-        <v>13455258</v>
+        <v>67274069</v>
       </c>
       <c r="F35" s="15">
-        <v>10694647</v>
+        <v>0</v>
       </c>
       <c r="G35" s="15">
-        <v>24162573</v>
+        <v>102567035</v>
       </c>
       <c r="H35" s="15">
-        <v>35399122</v>
+        <v>118020562</v>
       </c>
       <c r="I35" s="15">
-        <v>27800805</v>
-      </c>
-      <c r="J35" s="15">
-        <v>35618624</v>
-      </c>
-      <c r="K35" s="15">
-        <v>47752213</v>
-      </c>
-      <c r="L35" s="15">
-        <v>67274069</v>
-      </c>
-      <c r="M35" s="15">
-        <v>40142099</v>
-      </c>
-      <c r="N35" s="15">
-        <v>102567035</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+        <v>89430108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1631,15 +1261,10 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1658,74 +1283,44 @@
       <c r="I37" s="15">
         <v>0</v>
       </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>0</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="19">
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19">
-        <v>0</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D39" s="15"/>
-      <c r="E39" s="15">
-        <v>0</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0</v>
+      <c r="E39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
@@ -1736,60 +1331,30 @@
       <c r="I39" s="15">
         <v>0</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="15">
-        <v>0</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="15">
-        <v>0</v>
-      </c>
-      <c r="N39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19">
-        <v>22353974</v>
+        <v>94387381</v>
       </c>
       <c r="F40" s="19">
-        <v>17894438</v>
+        <v>0</v>
       </c>
       <c r="G40" s="19">
-        <v>28185473</v>
+        <v>128059977</v>
       </c>
       <c r="H40" s="19">
-        <v>35399122</v>
+        <v>142149002</v>
       </c>
       <c r="I40" s="19">
-        <v>41995653</v>
-      </c>
-      <c r="J40" s="19">
-        <v>47934193</v>
-      </c>
-      <c r="K40" s="19">
-        <v>60658299</v>
-      </c>
-      <c r="L40" s="19">
-        <v>94387381</v>
-      </c>
-      <c r="M40" s="19">
-        <v>66986463</v>
-      </c>
-      <c r="N40" s="19">
-        <v>128059977</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>110842812</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1798,13 +1363,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1813,13 +1373,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1828,15 +1383,10 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1855,23 +1405,8 @@
       <c r="I44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1880,15 +1415,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1897,93 +1427,58 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>18391629</v>
+        <v>90421410</v>
       </c>
       <c r="F48" s="13">
-        <v>19946631</v>
+        <v>90339742</v>
       </c>
       <c r="G48" s="13">
-        <v>22332819</v>
+        <v>116827025</v>
       </c>
       <c r="H48" s="13">
-        <v>36085922</v>
+        <v>103233430</v>
       </c>
       <c r="I48" s="13">
-        <v>40775498</v>
-      </c>
-      <c r="J48" s="13">
-        <v>40707879</v>
-      </c>
-      <c r="K48" s="13">
-        <v>46274292</v>
-      </c>
-      <c r="L48" s="13">
-        <v>90421410</v>
-      </c>
-      <c r="M48" s="13">
-        <v>90339742</v>
-      </c>
-      <c r="N48" s="13">
-        <v>116827025</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>109697915</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1992,91 +1487,56 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>18141385</v>
+        <v>103856801</v>
       </c>
       <c r="F50" s="11">
-        <v>17631307</v>
+        <v>130575764</v>
       </c>
       <c r="G50" s="11">
-        <v>20232843</v>
+        <v>204387533</v>
       </c>
       <c r="H50" s="11">
-        <v>26970675</v>
+        <v>192852464</v>
       </c>
       <c r="I50" s="11">
-        <v>26831048</v>
-      </c>
-      <c r="J50" s="11">
-        <v>35325986</v>
-      </c>
-      <c r="K50" s="11">
-        <v>70911303</v>
-      </c>
-      <c r="L50" s="11">
-        <v>103856801</v>
-      </c>
-      <c r="M50" s="11">
-        <v>130575764</v>
-      </c>
-      <c r="N50" s="11">
-        <v>204387533</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>188787603</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>22295038</v>
+        <v>107231469</v>
       </c>
       <c r="F51" s="13">
-        <v>27690136</v>
+        <v>140426632</v>
       </c>
       <c r="G51" s="13">
-        <v>41478991</v>
+        <v>154473566</v>
       </c>
       <c r="H51" s="13">
-        <v>52906255</v>
+        <v>141083142</v>
       </c>
       <c r="I51" s="13">
-        <v>61869307</v>
-      </c>
-      <c r="J51" s="13">
-        <v>62164032</v>
-      </c>
-      <c r="K51" s="13">
-        <v>74336220</v>
-      </c>
-      <c r="L51" s="13">
-        <v>107231469</v>
-      </c>
-      <c r="M51" s="13">
-        <v>140426632</v>
-      </c>
-      <c r="N51" s="13">
-        <v>154473566</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>138798813</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2085,13 +1545,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2100,13 +1555,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2115,15 +1565,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2142,23 +1587,8 @@
       <c r="I55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2167,15 +1597,10 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2184,130 +1609,80 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-      <c r="F58" s="11">
-        <v>0</v>
+      <c r="E58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>-3650664</v>
+        <v>-12162990</v>
       </c>
       <c r="F59" s="13">
-        <v>-2962857</v>
+        <v>-14799163</v>
       </c>
       <c r="G59" s="13">
-        <v>-1992728</v>
+        <v>-10927867</v>
       </c>
       <c r="H59" s="13">
-        <v>0</v>
+        <v>-11042391</v>
       </c>
       <c r="I59" s="13">
-        <v>-11362894</v>
-      </c>
-      <c r="J59" s="13">
-        <v>-4370017</v>
-      </c>
-      <c r="K59" s="13">
-        <v>-8522148</v>
-      </c>
-      <c r="L59" s="13">
-        <v>-12162990</v>
-      </c>
-      <c r="M59" s="13">
-        <v>-14799163</v>
-      </c>
-      <c r="N59" s="13">
-        <v>-10927867</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-8241052</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
-        <v>-3650664</v>
+        <v>-12162990</v>
       </c>
       <c r="F60" s="15">
-        <v>-2962857</v>
+        <v>-14799163</v>
       </c>
       <c r="G60" s="15">
-        <v>-1992728</v>
+        <v>-10927867</v>
       </c>
       <c r="H60" s="15">
-        <v>0</v>
+        <v>-11042391</v>
       </c>
       <c r="I60" s="15">
-        <v>-11362894</v>
-      </c>
-      <c r="J60" s="15">
-        <v>-4370017</v>
-      </c>
-      <c r="K60" s="15">
-        <v>-8522148</v>
-      </c>
-      <c r="L60" s="15">
-        <v>-12162990</v>
-      </c>
-      <c r="M60" s="15">
-        <v>-14799163</v>
-      </c>
-      <c r="N60" s="15">
-        <v>-10927867</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-8241052</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -2316,130 +1691,80 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>-274248</v>
+        <v>-4424815</v>
       </c>
       <c r="F62" s="11">
-        <v>-386476</v>
+        <v>-3327888</v>
       </c>
       <c r="G62" s="11">
-        <v>-612547</v>
+        <v>-4387169</v>
       </c>
       <c r="H62" s="11">
-        <v>-767848</v>
+        <v>-4069320</v>
       </c>
       <c r="I62" s="11">
-        <v>-1336510</v>
-      </c>
-      <c r="J62" s="11">
-        <v>-1548211</v>
-      </c>
-      <c r="K62" s="11">
-        <v>-2219994</v>
-      </c>
-      <c r="L62" s="11">
-        <v>-4424815</v>
-      </c>
-      <c r="M62" s="11">
-        <v>-3327888</v>
-      </c>
-      <c r="N62" s="11">
-        <v>-4387169</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-2498697</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>-6631640</v>
+        <v>-21207099</v>
       </c>
       <c r="F63" s="13">
-        <v>-2912928</v>
+        <v>-13001135</v>
       </c>
       <c r="G63" s="13">
-        <v>-5315844</v>
+        <v>-26674248</v>
       </c>
       <c r="H63" s="13">
-        <v>-8878152</v>
+        <v>-33658470</v>
       </c>
       <c r="I63" s="13">
-        <v>-7781324</v>
-      </c>
-      <c r="J63" s="13">
-        <v>-8169229</v>
-      </c>
-      <c r="K63" s="13">
-        <v>-15754250</v>
-      </c>
-      <c r="L63" s="13">
-        <v>-21207099</v>
-      </c>
-      <c r="M63" s="13">
-        <v>-13001135</v>
-      </c>
-      <c r="N63" s="13">
-        <v>-26674248</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-23578315</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>-6905888</v>
+        <v>-25631914</v>
       </c>
       <c r="F64" s="15">
-        <v>-3299404</v>
+        <v>-16329023</v>
       </c>
       <c r="G64" s="15">
-        <v>-5928391</v>
+        <v>-31061417</v>
       </c>
       <c r="H64" s="15">
-        <v>-9646000</v>
+        <v>-37727790</v>
       </c>
       <c r="I64" s="15">
-        <v>-9117834</v>
-      </c>
-      <c r="J64" s="15">
-        <v>-9717440</v>
-      </c>
-      <c r="K64" s="15">
-        <v>-17974244</v>
-      </c>
-      <c r="L64" s="15">
-        <v>-25631914</v>
-      </c>
-      <c r="M64" s="15">
-        <v>-16329023</v>
-      </c>
-      <c r="N64" s="15">
-        <v>-31061417</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-26077012</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -2448,15 +1773,10 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -2475,71 +1795,41 @@
       <c r="I66" s="15">
         <v>0</v>
       </c>
-      <c r="J66" s="15">
-        <v>0</v>
-      </c>
-      <c r="K66" s="15">
-        <v>0</v>
-      </c>
-      <c r="L66" s="15">
-        <v>0</v>
-      </c>
-      <c r="M66" s="15">
-        <v>0</v>
-      </c>
-      <c r="N66" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D67" s="19"/>
-      <c r="E67" s="19">
-        <v>0</v>
-      </c>
-      <c r="F67" s="19">
-        <v>0</v>
-      </c>
-      <c r="G67" s="19">
-        <v>0</v>
-      </c>
-      <c r="H67" s="19">
-        <v>0</v>
-      </c>
-      <c r="I67" s="19">
-        <v>0</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N67" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E67" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D68" s="15"/>
-      <c r="E68" s="15">
-        <v>0</v>
+      <c r="E68" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="F68" s="15">
         <v>0</v>
@@ -2553,60 +1843,30 @@
       <c r="I68" s="15">
         <v>0</v>
       </c>
-      <c r="J68" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="15">
-        <v>0</v>
-      </c>
-      <c r="L68" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" s="15">
-        <v>0</v>
-      </c>
-      <c r="N68" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19">
-        <v>-10556552</v>
+        <v>-37794904</v>
       </c>
       <c r="F69" s="19">
-        <v>-6262261</v>
+        <v>-31128186</v>
       </c>
       <c r="G69" s="19">
-        <v>-7921119</v>
+        <v>-41989284</v>
       </c>
       <c r="H69" s="19">
-        <v>-9646000</v>
+        <v>-48770181</v>
       </c>
       <c r="I69" s="19">
-        <v>-20480728</v>
-      </c>
-      <c r="J69" s="19">
-        <v>-14087457</v>
-      </c>
-      <c r="K69" s="19">
-        <v>-26496392</v>
-      </c>
-      <c r="L69" s="19">
-        <v>-37794904</v>
-      </c>
-      <c r="M69" s="19">
-        <v>-31128186</v>
-      </c>
-      <c r="N69" s="19">
-        <v>-41989284</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-34318064</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2615,13 +1875,8 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2630,13 +1885,8 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2645,15 +1895,10 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2672,23 +1917,8 @@
       <c r="I73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N73" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2697,15 +1927,10 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2714,130 +1939,80 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11">
-        <v>0</v>
+      <c r="E76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>2210789</v>
+        <v>14950322</v>
       </c>
       <c r="F77" s="13">
-        <v>4236934</v>
+        <v>12045201</v>
       </c>
       <c r="G77" s="13">
-        <v>2030172</v>
+        <v>14565075</v>
       </c>
       <c r="H77" s="13">
-        <v>0</v>
+        <v>13086049</v>
       </c>
       <c r="I77" s="13">
-        <v>14243369</v>
-      </c>
-      <c r="J77" s="13">
-        <v>7945552</v>
-      </c>
-      <c r="K77" s="13">
-        <v>4383937</v>
-      </c>
-      <c r="L77" s="13">
-        <v>14950322</v>
-      </c>
-      <c r="M77" s="13">
-        <v>12045201</v>
-      </c>
-      <c r="N77" s="13">
-        <v>14565075</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13171652</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>2210789</v>
+        <v>14950322</v>
       </c>
       <c r="F78" s="15">
-        <v>4236934</v>
+        <v>12045201</v>
       </c>
       <c r="G78" s="15">
-        <v>2030172</v>
+        <v>14565075</v>
       </c>
       <c r="H78" s="15">
-        <v>0</v>
+        <v>13086049</v>
       </c>
       <c r="I78" s="15">
-        <v>14243369</v>
-      </c>
-      <c r="J78" s="15">
-        <v>7945552</v>
-      </c>
-      <c r="K78" s="15">
-        <v>4383937</v>
-      </c>
-      <c r="L78" s="15">
-        <v>14950322</v>
-      </c>
-      <c r="M78" s="15">
-        <v>12045201</v>
-      </c>
-      <c r="N78" s="15">
-        <v>14565075</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13171652</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2846,130 +2021,80 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>79509</v>
+        <v>2741512</v>
       </c>
       <c r="F80" s="11">
-        <v>265900</v>
+        <v>2537053</v>
       </c>
       <c r="G80" s="11">
-        <v>510396</v>
+        <v>9800596</v>
       </c>
       <c r="H80" s="11">
-        <v>232791</v>
+        <v>9237500</v>
       </c>
       <c r="I80" s="11">
-        <v>152640</v>
-      </c>
-      <c r="J80" s="11">
-        <v>1065912</v>
-      </c>
-      <c r="K80" s="11">
-        <v>2034826</v>
-      </c>
-      <c r="L80" s="11">
-        <v>2741512</v>
-      </c>
-      <c r="M80" s="11">
-        <v>2537053</v>
-      </c>
-      <c r="N80" s="11">
-        <v>9800596</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6699035</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>6469861</v>
+        <v>38900643</v>
       </c>
       <c r="F81" s="13">
-        <v>7129343</v>
+        <v>21276023</v>
       </c>
       <c r="G81" s="13">
-        <v>17723786</v>
+        <v>61705022</v>
       </c>
       <c r="H81" s="13">
-        <v>25520331</v>
+        <v>71055272</v>
       </c>
       <c r="I81" s="13">
-        <v>18530331</v>
-      </c>
-      <c r="J81" s="13">
-        <v>24835272</v>
-      </c>
-      <c r="K81" s="13">
-        <v>27743143</v>
-      </c>
-      <c r="L81" s="13">
-        <v>38900643</v>
-      </c>
-      <c r="M81" s="13">
-        <v>21276023</v>
-      </c>
-      <c r="N81" s="13">
-        <v>61705022</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+        <v>56654061</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>6549370</v>
+        <v>41642155</v>
       </c>
       <c r="F82" s="15">
-        <v>7395243</v>
+        <v>23813076</v>
       </c>
       <c r="G82" s="15">
-        <v>18234182</v>
+        <v>71505618</v>
       </c>
       <c r="H82" s="15">
-        <v>25753122</v>
+        <v>80292772</v>
       </c>
       <c r="I82" s="15">
-        <v>18682971</v>
-      </c>
-      <c r="J82" s="15">
-        <v>25901184</v>
-      </c>
-      <c r="K82" s="15">
-        <v>29777969</v>
-      </c>
-      <c r="L82" s="15">
-        <v>41642155</v>
-      </c>
-      <c r="M82" s="15">
-        <v>23813076</v>
-      </c>
-      <c r="N82" s="15">
-        <v>71505618</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+        <v>63353096</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -2978,15 +2103,10 @@
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -3005,57 +2125,27 @@
       <c r="I84" s="15">
         <v>0</v>
       </c>
-      <c r="J84" s="15">
-        <v>0</v>
-      </c>
-      <c r="K84" s="15">
-        <v>0</v>
-      </c>
-      <c r="L84" s="15">
-        <v>0</v>
-      </c>
-      <c r="M84" s="15">
-        <v>0</v>
-      </c>
-      <c r="N84" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
-        <v>8760159</v>
+        <v>56592477</v>
       </c>
       <c r="F85" s="19">
-        <v>11632177</v>
+        <v>35858277</v>
       </c>
       <c r="G85" s="19">
-        <v>20264354</v>
+        <v>86070693</v>
       </c>
       <c r="H85" s="19">
-        <v>25753122</v>
+        <v>93378821</v>
       </c>
       <c r="I85" s="19">
-        <v>32926340</v>
-      </c>
-      <c r="J85" s="19">
-        <v>33846736</v>
-      </c>
-      <c r="K85" s="19">
-        <v>34161906</v>
-      </c>
-      <c r="L85" s="19">
-        <v>56592477</v>
-      </c>
-      <c r="M85" s="19">
-        <v>35858277</v>
-      </c>
-      <c r="N85" s="19">
-        <v>86070693</v>
+        <v>76524748</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/urea/shapdis/product/quarterly_seprated.xlsx
+++ b/database/industries/urea/shapdis/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\shapdis\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\shapdis\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA9901-91A6-46C7-BE84-C1B2ABBE7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DCB62A-5691-48BC-83FE-58ED00404A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل اول منتهی به 1400/09</t>
@@ -639,16 +654,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I85"/>
+  <dimension ref="B1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -657,8 +672,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,8 +689,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -681,8 +706,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,8 +721,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -703,8 +738,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,8 +755,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -725,8 +770,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -747,8 +797,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -757,10 +822,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -769,80 +839,130 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>180134</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>348122</v>
+      </c>
+      <c r="H12" s="13">
+        <v>267209</v>
+      </c>
+      <c r="I12" s="13">
+        <v>278904</v>
+      </c>
+      <c r="J12" s="13">
         <v>299855</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>297149</v>
+      </c>
+      <c r="L12" s="13">
         <v>218211</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>233727</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>195197</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15">
+        <v>180134</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>348122</v>
+      </c>
+      <c r="H13" s="15">
+        <v>267209</v>
+      </c>
+      <c r="I13" s="15">
+        <v>278904</v>
+      </c>
+      <c r="J13" s="15">
         <v>299855</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="K13" s="15">
+        <v>297149</v>
+      </c>
+      <c r="L13" s="15">
         <v>218211</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>233727</v>
       </c>
-      <c r="I13" s="15">
+      <c r="N13" s="15">
         <v>195197</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -851,80 +971,130 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>55501</v>
+      </c>
+      <c r="F15" s="11">
+        <v>37101</v>
+      </c>
+      <c r="G15" s="11">
+        <v>55501</v>
+      </c>
+      <c r="H15" s="11">
+        <v>74000</v>
+      </c>
+      <c r="I15" s="11">
+        <v>60002</v>
+      </c>
+      <c r="J15" s="11">
         <v>69002</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
+        <v>44916</v>
+      </c>
+      <c r="L15" s="11">
         <v>69416</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>69000</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>48720</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>555453</v>
+      </c>
+      <c r="F16" s="13">
+        <v>650178</v>
+      </c>
+      <c r="G16" s="13">
+        <v>425278</v>
+      </c>
+      <c r="H16" s="13">
+        <v>530926</v>
+      </c>
+      <c r="I16" s="13">
+        <v>585144</v>
+      </c>
+      <c r="J16" s="13">
         <v>560542</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="K16" s="13">
+        <v>244093</v>
+      </c>
+      <c r="L16" s="13">
         <v>572132</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>742213</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>578048</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
+        <v>610954</v>
+      </c>
+      <c r="F17" s="15">
+        <v>687279</v>
+      </c>
+      <c r="G17" s="15">
+        <v>480779</v>
+      </c>
+      <c r="H17" s="15">
+        <v>604926</v>
+      </c>
+      <c r="I17" s="15">
+        <v>645146</v>
+      </c>
+      <c r="J17" s="15">
         <v>629544</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="K17" s="15">
+        <v>289009</v>
+      </c>
+      <c r="L17" s="15">
         <v>641548</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>811213</v>
       </c>
-      <c r="I17" s="15">
+      <c r="N17" s="15">
         <v>626768</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -933,10 +1103,15 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -955,76 +1130,136 @@
       <c r="I19" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>13</v>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>13</v>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="15">
-        <v>0</v>
+      <c r="H21" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
+        <v>791088</v>
+      </c>
+      <c r="F22" s="19">
+        <v>687279</v>
+      </c>
+      <c r="G22" s="19">
+        <v>828901</v>
+      </c>
+      <c r="H22" s="19">
+        <v>872135</v>
+      </c>
+      <c r="I22" s="19">
+        <v>924050</v>
+      </c>
+      <c r="J22" s="19">
         <v>929399</v>
       </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
+      <c r="K22" s="19">
+        <v>586158</v>
+      </c>
+      <c r="L22" s="19">
         <v>859759</v>
       </c>
-      <c r="H22" s="19">
+      <c r="M22" s="19">
         <v>1044940</v>
       </c>
-      <c r="I22" s="19">
+      <c r="N22" s="19">
         <v>821965</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1033,8 +1268,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1043,8 +1283,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1053,10 +1298,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1075,8 +1325,23 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1085,10 +1350,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1097,80 +1367,130 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>4022900</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>14194848</v>
+      </c>
+      <c r="H30" s="13">
+        <v>12315569</v>
+      </c>
+      <c r="I30" s="13">
+        <v>12906086</v>
+      </c>
+      <c r="J30" s="13">
         <v>27113312</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="K30" s="13">
+        <v>26844364</v>
+      </c>
+      <c r="L30" s="13">
         <v>25492942</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>24128440</v>
       </c>
-      <c r="I30" s="13">
+      <c r="N30" s="13">
         <v>21412704</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>4022900</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
+        <v>14194848</v>
+      </c>
+      <c r="H31" s="15">
+        <v>12315569</v>
+      </c>
+      <c r="I31" s="15">
+        <v>12906086</v>
+      </c>
+      <c r="J31" s="15">
         <v>27113312</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
+        <v>26844364</v>
+      </c>
+      <c r="L31" s="15">
         <v>25492942</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>24128440</v>
       </c>
-      <c r="I31" s="15">
+      <c r="N31" s="15">
         <v>21412704</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1179,80 +1499,130 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>1122943</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1000639</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1489150</v>
+      </c>
+      <c r="H33" s="11">
+        <v>2614123</v>
+      </c>
+      <c r="I33" s="11">
+        <v>4254820</v>
+      </c>
+      <c r="J33" s="11">
         <v>7166327</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="K33" s="11">
+        <v>5864941</v>
+      </c>
+      <c r="L33" s="11">
         <v>14187765</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>13306820</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>9197732</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>23039630</v>
+      </c>
+      <c r="F34" s="13">
+        <v>34398483</v>
+      </c>
+      <c r="G34" s="13">
+        <v>26311655</v>
+      </c>
+      <c r="H34" s="13">
+        <v>33004501</v>
+      </c>
+      <c r="I34" s="13">
+        <v>43497393</v>
+      </c>
+      <c r="J34" s="13">
         <v>60107742</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="K34" s="13">
+        <v>34277158</v>
+      </c>
+      <c r="L34" s="13">
         <v>88379270</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>104713742</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>80232376</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>24162573</v>
+      </c>
+      <c r="F35" s="15">
+        <v>35399122</v>
+      </c>
+      <c r="G35" s="15">
+        <v>27800805</v>
+      </c>
+      <c r="H35" s="15">
+        <v>35618624</v>
+      </c>
+      <c r="I35" s="15">
+        <v>47752213</v>
+      </c>
+      <c r="J35" s="15">
         <v>67274069</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
+      <c r="K35" s="15">
+        <v>40142099</v>
+      </c>
+      <c r="L35" s="15">
         <v>102567035</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>118020562</v>
       </c>
-      <c r="I35" s="15">
+      <c r="N35" s="15">
         <v>89430108</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1261,10 +1631,15 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -1283,78 +1658,138 @@
       <c r="I37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>13</v>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>13</v>
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
       </c>
-      <c r="H39" s="15">
-        <v>0</v>
+      <c r="H39" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19">
+        <v>28185473</v>
+      </c>
+      <c r="F40" s="19">
+        <v>35399122</v>
+      </c>
+      <c r="G40" s="19">
+        <v>41995653</v>
+      </c>
+      <c r="H40" s="19">
+        <v>47934193</v>
+      </c>
+      <c r="I40" s="19">
+        <v>60658299</v>
+      </c>
+      <c r="J40" s="19">
         <v>94387381</v>
       </c>
-      <c r="F40" s="19">
-        <v>0</v>
-      </c>
-      <c r="G40" s="19">
+      <c r="K40" s="19">
+        <v>66986463</v>
+      </c>
+      <c r="L40" s="19">
         <v>128059977</v>
       </c>
-      <c r="H40" s="19">
+      <c r="M40" s="19">
         <v>142149002</v>
       </c>
-      <c r="I40" s="19">
+      <c r="N40" s="19">
         <v>110842812</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1363,8 +1798,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1373,8 +1813,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1383,10 +1828,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1405,8 +1855,23 @@
       <c r="I44" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1415,10 +1880,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1427,58 +1897,93 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
+        <v>22332819</v>
+      </c>
+      <c r="F48" s="13">
+        <v>36085922</v>
+      </c>
+      <c r="G48" s="13">
+        <v>40775498</v>
+      </c>
+      <c r="H48" s="13">
+        <v>40707879</v>
+      </c>
+      <c r="I48" s="13">
+        <v>46274292</v>
+      </c>
+      <c r="J48" s="13">
         <v>90421410</v>
       </c>
-      <c r="F48" s="13">
+      <c r="K48" s="13">
         <v>90339742</v>
       </c>
-      <c r="G48" s="13">
+      <c r="L48" s="13">
         <v>116827025</v>
       </c>
-      <c r="H48" s="13">
+      <c r="M48" s="13">
         <v>103233430</v>
       </c>
-      <c r="I48" s="13">
+      <c r="N48" s="13">
         <v>109697915</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1487,56 +1992,91 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>20232843</v>
+      </c>
+      <c r="F50" s="11">
+        <v>26970675</v>
+      </c>
+      <c r="G50" s="11">
+        <v>26831048</v>
+      </c>
+      <c r="H50" s="11">
+        <v>35325986</v>
+      </c>
+      <c r="I50" s="11">
+        <v>70911303</v>
+      </c>
+      <c r="J50" s="11">
         <v>103856801</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>130575764</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>204387533</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>192852464</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>188787603</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
+        <v>41478991</v>
+      </c>
+      <c r="F51" s="13">
+        <v>52906255</v>
+      </c>
+      <c r="G51" s="13">
+        <v>61869307</v>
+      </c>
+      <c r="H51" s="13">
+        <v>62164032</v>
+      </c>
+      <c r="I51" s="13">
+        <v>74336220</v>
+      </c>
+      <c r="J51" s="13">
         <v>107231469</v>
       </c>
-      <c r="F51" s="13">
+      <c r="K51" s="13">
         <v>140426632</v>
       </c>
-      <c r="G51" s="13">
+      <c r="L51" s="13">
         <v>154473566</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>141083142</v>
       </c>
-      <c r="I51" s="13">
+      <c r="N51" s="13">
         <v>138798813</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1545,8 +2085,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1555,8 +2100,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1565,10 +2115,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1587,8 +2142,23 @@
       <c r="I55" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1597,10 +2167,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1609,80 +2184,130 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
+        <v>-1992728</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>-11362894</v>
+      </c>
+      <c r="H59" s="13">
+        <v>-4370017</v>
+      </c>
+      <c r="I59" s="13">
+        <v>-8522148</v>
+      </c>
+      <c r="J59" s="13">
         <v>-12162990</v>
       </c>
-      <c r="F59" s="13">
+      <c r="K59" s="13">
         <v>-14799163</v>
       </c>
-      <c r="G59" s="13">
+      <c r="L59" s="13">
         <v>-10927867</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>-11042391</v>
       </c>
-      <c r="I59" s="13">
+      <c r="N59" s="13">
         <v>-8241052</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
+        <v>-1992728</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15">
+        <v>-11362894</v>
+      </c>
+      <c r="H60" s="15">
+        <v>-4370017</v>
+      </c>
+      <c r="I60" s="15">
+        <v>-8522148</v>
+      </c>
+      <c r="J60" s="15">
         <v>-12162990</v>
       </c>
-      <c r="F60" s="15">
+      <c r="K60" s="15">
         <v>-14799163</v>
       </c>
-      <c r="G60" s="15">
+      <c r="L60" s="15">
         <v>-10927867</v>
       </c>
-      <c r="H60" s="15">
+      <c r="M60" s="15">
         <v>-11042391</v>
       </c>
-      <c r="I60" s="15">
+      <c r="N60" s="15">
         <v>-8241052</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -1691,80 +2316,130 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>-612547</v>
+      </c>
+      <c r="F62" s="11">
+        <v>-767848</v>
+      </c>
+      <c r="G62" s="11">
+        <v>-1336510</v>
+      </c>
+      <c r="H62" s="11">
+        <v>-1548211</v>
+      </c>
+      <c r="I62" s="11">
+        <v>-2219994</v>
+      </c>
+      <c r="J62" s="11">
         <v>-4424815</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>-3327888</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>-4387169</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>-4069320</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>-2498697</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
+        <v>-5315844</v>
+      </c>
+      <c r="F63" s="13">
+        <v>-8878152</v>
+      </c>
+      <c r="G63" s="13">
+        <v>-7781324</v>
+      </c>
+      <c r="H63" s="13">
+        <v>-8169229</v>
+      </c>
+      <c r="I63" s="13">
+        <v>-15754250</v>
+      </c>
+      <c r="J63" s="13">
         <v>-21207099</v>
       </c>
-      <c r="F63" s="13">
+      <c r="K63" s="13">
         <v>-13001135</v>
       </c>
-      <c r="G63" s="13">
+      <c r="L63" s="13">
         <v>-26674248</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>-33658470</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>-23578315</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
+        <v>-5928391</v>
+      </c>
+      <c r="F64" s="15">
+        <v>-9646000</v>
+      </c>
+      <c r="G64" s="15">
+        <v>-9117834</v>
+      </c>
+      <c r="H64" s="15">
+        <v>-9717440</v>
+      </c>
+      <c r="I64" s="15">
+        <v>-17974244</v>
+      </c>
+      <c r="J64" s="15">
         <v>-25631914</v>
       </c>
-      <c r="F64" s="15">
+      <c r="K64" s="15">
         <v>-16329023</v>
       </c>
-      <c r="G64" s="15">
+      <c r="L64" s="15">
         <v>-31061417</v>
       </c>
-      <c r="H64" s="15">
+      <c r="M64" s="15">
         <v>-37727790</v>
       </c>
-      <c r="I64" s="15">
+      <c r="N64" s="15">
         <v>-26077012</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -1773,10 +2448,15 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -1795,41 +2475,71 @@
       <c r="I66" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="15">
+        <v>0</v>
+      </c>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <v>0</v>
+      </c>
+      <c r="M66" s="15">
+        <v>0</v>
+      </c>
+      <c r="N66" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D67" s="19"/>
-      <c r="E67" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>13</v>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="19">
+        <v>0</v>
+      </c>
+      <c r="G67" s="19">
+        <v>0</v>
       </c>
       <c r="H67" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D68" s="15"/>
-      <c r="E68" s="15" t="s">
-        <v>13</v>
+      <c r="E68" s="15">
+        <v>0</v>
       </c>
       <c r="F68" s="15">
         <v>0</v>
@@ -1837,36 +2547,66 @@
       <c r="G68" s="15">
         <v>0</v>
       </c>
-      <c r="H68" s="15">
-        <v>0</v>
+      <c r="H68" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I68" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="15">
+        <v>0</v>
+      </c>
+      <c r="L68" s="15">
+        <v>0</v>
+      </c>
+      <c r="M68" s="15">
+        <v>0</v>
+      </c>
+      <c r="N68" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19">
+        <v>-7921119</v>
+      </c>
+      <c r="F69" s="19">
+        <v>-9646000</v>
+      </c>
+      <c r="G69" s="19">
+        <v>-20480728</v>
+      </c>
+      <c r="H69" s="19">
+        <v>-14087457</v>
+      </c>
+      <c r="I69" s="19">
+        <v>-26496392</v>
+      </c>
+      <c r="J69" s="19">
         <v>-37794904</v>
       </c>
-      <c r="F69" s="19">
+      <c r="K69" s="19">
         <v>-31128186</v>
       </c>
-      <c r="G69" s="19">
+      <c r="L69" s="19">
         <v>-41989284</v>
       </c>
-      <c r="H69" s="19">
+      <c r="M69" s="19">
         <v>-48770181</v>
       </c>
-      <c r="I69" s="19">
+      <c r="N69" s="19">
         <v>-34318064</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1875,8 +2615,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1885,8 +2630,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1895,10 +2645,15 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -1917,8 +2672,23 @@
       <c r="I73" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1927,10 +2697,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -1939,80 +2714,130 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>2030172</v>
+      </c>
+      <c r="F77" s="13">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13">
+        <v>14243369</v>
+      </c>
+      <c r="H77" s="13">
+        <v>7945552</v>
+      </c>
+      <c r="I77" s="13">
+        <v>4383937</v>
+      </c>
+      <c r="J77" s="13">
         <v>14950322</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>12045201</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>14565075</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>13086049</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>13171652</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
+        <v>2030172</v>
+      </c>
+      <c r="F78" s="15">
+        <v>0</v>
+      </c>
+      <c r="G78" s="15">
+        <v>14243369</v>
+      </c>
+      <c r="H78" s="15">
+        <v>7945552</v>
+      </c>
+      <c r="I78" s="15">
+        <v>4383937</v>
+      </c>
+      <c r="J78" s="15">
         <v>14950322</v>
       </c>
-      <c r="F78" s="15">
+      <c r="K78" s="15">
         <v>12045201</v>
       </c>
-      <c r="G78" s="15">
+      <c r="L78" s="15">
         <v>14565075</v>
       </c>
-      <c r="H78" s="15">
+      <c r="M78" s="15">
         <v>13086049</v>
       </c>
-      <c r="I78" s="15">
+      <c r="N78" s="15">
         <v>13171652</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2021,80 +2846,130 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>510396</v>
+      </c>
+      <c r="F80" s="11">
+        <v>232791</v>
+      </c>
+      <c r="G80" s="11">
+        <v>152640</v>
+      </c>
+      <c r="H80" s="11">
+        <v>1065912</v>
+      </c>
+      <c r="I80" s="11">
+        <v>2034826</v>
+      </c>
+      <c r="J80" s="11">
         <v>2741512</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>2537053</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>9800596</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>9237500</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>6699035</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>17723786</v>
+      </c>
+      <c r="F81" s="13">
+        <v>25520331</v>
+      </c>
+      <c r="G81" s="13">
+        <v>18530331</v>
+      </c>
+      <c r="H81" s="13">
+        <v>24835272</v>
+      </c>
+      <c r="I81" s="13">
+        <v>27743143</v>
+      </c>
+      <c r="J81" s="13">
         <v>38900643</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>21276023</v>
       </c>
-      <c r="G81" s="13">
+      <c r="L81" s="13">
         <v>61705022</v>
       </c>
-      <c r="H81" s="13">
+      <c r="M81" s="13">
         <v>71055272</v>
       </c>
-      <c r="I81" s="13">
+      <c r="N81" s="13">
         <v>56654061</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
+        <v>18234182</v>
+      </c>
+      <c r="F82" s="15">
+        <v>25753122</v>
+      </c>
+      <c r="G82" s="15">
+        <v>18682971</v>
+      </c>
+      <c r="H82" s="15">
+        <v>25901184</v>
+      </c>
+      <c r="I82" s="15">
+        <v>29777969</v>
+      </c>
+      <c r="J82" s="15">
         <v>41642155</v>
       </c>
-      <c r="F82" s="15">
+      <c r="K82" s="15">
         <v>23813076</v>
       </c>
-      <c r="G82" s="15">
+      <c r="L82" s="15">
         <v>71505618</v>
       </c>
-      <c r="H82" s="15">
+      <c r="M82" s="15">
         <v>80292772</v>
       </c>
-      <c r="I82" s="15">
+      <c r="N82" s="15">
         <v>63353096</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -2103,10 +2978,15 @@
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -2125,26 +3005,56 @@
       <c r="I84" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="15">
+        <v>0</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0</v>
+      </c>
+      <c r="L84" s="15">
+        <v>0</v>
+      </c>
+      <c r="M84" s="15">
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
+        <v>20264354</v>
+      </c>
+      <c r="F85" s="19">
+        <v>25753122</v>
+      </c>
+      <c r="G85" s="19">
+        <v>32926340</v>
+      </c>
+      <c r="H85" s="19">
+        <v>33846736</v>
+      </c>
+      <c r="I85" s="19">
+        <v>34161906</v>
+      </c>
+      <c r="J85" s="19">
         <v>56592477</v>
       </c>
-      <c r="F85" s="19">
+      <c r="K85" s="19">
         <v>35858277</v>
       </c>
-      <c r="G85" s="19">
+      <c r="L85" s="19">
         <v>86070693</v>
       </c>
-      <c r="H85" s="19">
+      <c r="M85" s="19">
         <v>93378821</v>
       </c>
-      <c r="I85" s="19">
+      <c r="N85" s="19">
         <v>76524748</v>
       </c>
     </row>
